--- a/biology/Zoologie/Luigi_Balzan/Luigi_Balzan.xlsx
+++ b/biology/Zoologie/Luigi_Balzan/Luigi_Balzan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luigi Balzan, né le 30 janvier 1865 à Badia Polesine et mort le 26 septembre 1893 à Padoue, est un explorateur et naturaliste italien.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire du Piémont, il est le fils de propriétaires terriens ruinés. Jeune, il part à l'aventure en Argentine pour y tenter de gagner sa vie. Il exerce alors divers métiers avant de devenir professeur de sciences naturelles à Asuncion au Paraguay. Il y demeure cinq années et y fréquente des naturalistes[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire du Piémont, il est le fils de propriétaires terriens ruinés. Jeune, il part à l'aventure en Argentine pour y tenter de gagner sa vie. Il exerce alors divers métiers avant de devenir professeur de sciences naturelles à Asuncion au Paraguay. Il y demeure cinq années et y fréquente des naturalistes. 
 Ayant obtenu une bourse de voyage de la Société de géographie italienne, il explore la Bolivie de 1891 à 1893 et meurt brutalement à son retour, victime de la malaria contractée lors de son voyage.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Textes publiés dans Jean-Claude Roux et Alain Gioda, Luigi Balzan : des Andes à l'Amazonie, 1891-1893, éditions de l'IRD-Gingko, Paris, 2006 :
 De Asunción à La Paz, Bolletino della Societa geografica italiana no 4, 1891, p. 452-580
@@ -581,9 +597,11 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une espèce de serpent, Atractus balzani, a été nommée en son honneur[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une espèce de serpent, Atractus balzani, a été nommée en son honneur.
 </t>
         </is>
       </c>
